--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.04559144639507</v>
+        <v>1.129852333333333</v>
       </c>
       <c r="H2">
-        <v>1.04559144639507</v>
+        <v>3.389557</v>
       </c>
       <c r="I2">
-        <v>0.1020868253066453</v>
+        <v>0.103499333151224</v>
       </c>
       <c r="J2">
-        <v>0.1020868253066453</v>
+        <v>0.103499333151224</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.20023827722216</v>
+        <v>7.759559666666667</v>
       </c>
       <c r="N2">
-        <v>7.20023827722216</v>
+        <v>23.278679</v>
       </c>
       <c r="O2">
-        <v>0.1425363993531946</v>
+        <v>0.1480404846036854</v>
       </c>
       <c r="P2">
-        <v>0.1425363993531946</v>
+        <v>0.1480404846036854</v>
       </c>
       <c r="Q2">
-        <v>7.528507554669864</v>
+        <v>8.767156595022556</v>
       </c>
       <c r="R2">
-        <v>7.528507554669864</v>
+        <v>78.904409355203</v>
       </c>
       <c r="S2">
-        <v>0.01455108850060781</v>
+        <v>0.01532209143586548</v>
       </c>
       <c r="T2">
-        <v>0.01455108850060781</v>
+        <v>0.01532209143586548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.04559144639507</v>
+        <v>1.129852333333333</v>
       </c>
       <c r="H3">
-        <v>1.04559144639507</v>
+        <v>3.389557</v>
       </c>
       <c r="I3">
-        <v>0.1020868253066453</v>
+        <v>0.103499333151224</v>
       </c>
       <c r="J3">
-        <v>0.1020868253066453</v>
+        <v>0.103499333151224</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6339257763264</v>
+        <v>34.70130533333333</v>
       </c>
       <c r="N3">
-        <v>34.6339257763264</v>
+        <v>104.103916</v>
       </c>
       <c r="O3">
-        <v>0.6856155151476305</v>
+        <v>0.6620476262326294</v>
       </c>
       <c r="P3">
-        <v>0.6856155151476305</v>
+        <v>0.6620476262326295</v>
       </c>
       <c r="Q3">
-        <v>36.21293654680861</v>
+        <v>39.20735080057911</v>
       </c>
       <c r="R3">
-        <v>36.21293654680861</v>
+        <v>352.866157205212</v>
       </c>
       <c r="S3">
-        <v>0.0699923113224018</v>
+        <v>0.06852148782942792</v>
       </c>
       <c r="T3">
-        <v>0.0699923113224018</v>
+        <v>0.06852148782942792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.04559144639507</v>
+        <v>1.129852333333333</v>
       </c>
       <c r="H4">
-        <v>1.04559144639507</v>
+        <v>3.389557</v>
       </c>
       <c r="I4">
-        <v>0.1020868253066453</v>
+        <v>0.103499333151224</v>
       </c>
       <c r="J4">
-        <v>0.1020868253066453</v>
+        <v>0.103499333151224</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315760431871644</v>
+        <v>0.375896</v>
       </c>
       <c r="N4">
-        <v>0.315760431871644</v>
+        <v>1.127688</v>
       </c>
       <c r="O4">
-        <v>0.00625081466533877</v>
+        <v>0.007171518538563155</v>
       </c>
       <c r="P4">
-        <v>0.00625081466533877</v>
+        <v>0.007171518538563155</v>
       </c>
       <c r="Q4">
-        <v>0.3301564066750042</v>
+        <v>0.4247069726906667</v>
       </c>
       <c r="R4">
-        <v>0.3301564066750042</v>
+        <v>3.822362754216</v>
       </c>
       <c r="S4">
-        <v>0.0006381258247646557</v>
+        <v>0.0007422473864229269</v>
       </c>
       <c r="T4">
-        <v>0.0006381258247646557</v>
+        <v>0.0007422473864229269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.04559144639507</v>
+        <v>1.129852333333333</v>
       </c>
       <c r="H5">
-        <v>1.04559144639507</v>
+        <v>3.389557</v>
       </c>
       <c r="I5">
-        <v>0.1020868253066453</v>
+        <v>0.103499333151224</v>
       </c>
       <c r="J5">
-        <v>0.1020868253066453</v>
+        <v>0.103499333151224</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.365160151876591</v>
+        <v>9.578358333333332</v>
       </c>
       <c r="N5">
-        <v>8.365160151876591</v>
+        <v>28.735075</v>
       </c>
       <c r="O5">
-        <v>0.1655972708338361</v>
+        <v>0.1827403706251221</v>
       </c>
       <c r="P5">
-        <v>0.1655972708338361</v>
+        <v>0.1827403706251221</v>
       </c>
       <c r="Q5">
-        <v>8.746539902527047</v>
+        <v>10.82213051241944</v>
       </c>
       <c r="R5">
-        <v>8.746539902527047</v>
+        <v>97.399174611775</v>
       </c>
       <c r="S5">
-        <v>0.01690529965887106</v>
+        <v>0.01891350649950765</v>
       </c>
       <c r="T5">
-        <v>0.01690529965887106</v>
+        <v>0.01891350649950765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.68540481469081</v>
+        <v>2.720340333333333</v>
       </c>
       <c r="H6">
-        <v>2.68540481469081</v>
+        <v>8.161021</v>
       </c>
       <c r="I6">
-        <v>0.2621907946360354</v>
+        <v>0.2491948745317264</v>
       </c>
       <c r="J6">
-        <v>0.2621907946360354</v>
+        <v>0.2491948745317264</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20023827722216</v>
+        <v>7.759559666666667</v>
       </c>
       <c r="N6">
-        <v>7.20023827722216</v>
+        <v>23.278679</v>
       </c>
       <c r="O6">
-        <v>0.1425363993531946</v>
+        <v>0.1480404846036854</v>
       </c>
       <c r="P6">
-        <v>0.1425363993531946</v>
+        <v>0.1480404846036854</v>
       </c>
       <c r="Q6">
-        <v>19.33555453657345</v>
+        <v>21.10864313013989</v>
       </c>
       <c r="R6">
-        <v>19.33555453657345</v>
+        <v>189.977788171259</v>
       </c>
       <c r="S6">
-        <v>0.03737173181097336</v>
+        <v>0.03689092998643137</v>
       </c>
       <c r="T6">
-        <v>0.03737173181097336</v>
+        <v>0.03689092998643137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.68540481469081</v>
+        <v>2.720340333333333</v>
       </c>
       <c r="H7">
-        <v>2.68540481469081</v>
+        <v>8.161021</v>
       </c>
       <c r="I7">
-        <v>0.2621907946360354</v>
+        <v>0.2491948745317264</v>
       </c>
       <c r="J7">
-        <v>0.2621907946360354</v>
+        <v>0.2491948745317264</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.6339257763264</v>
+        <v>34.70130533333333</v>
       </c>
       <c r="N7">
-        <v>34.6339257763264</v>
+        <v>104.103916</v>
       </c>
       <c r="O7">
-        <v>0.6856155151476305</v>
+        <v>0.6620476262326294</v>
       </c>
       <c r="P7">
-        <v>0.6856155151476305</v>
+        <v>0.6620476262326295</v>
       </c>
       <c r="Q7">
-        <v>93.00611103139107</v>
+        <v>94.39936051758177</v>
       </c>
       <c r="R7">
-        <v>93.00611103139107</v>
+        <v>849.594244658236</v>
       </c>
       <c r="S7">
-        <v>0.179762076731352</v>
+        <v>0.1649788751530674</v>
       </c>
       <c r="T7">
-        <v>0.179762076731352</v>
+        <v>0.1649788751530674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.68540481469081</v>
+        <v>2.720340333333333</v>
       </c>
       <c r="H8">
-        <v>2.68540481469081</v>
+        <v>8.161021</v>
       </c>
       <c r="I8">
-        <v>0.2621907946360354</v>
+        <v>0.2491948745317264</v>
       </c>
       <c r="J8">
-        <v>0.2621907946360354</v>
+        <v>0.2491948745317264</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.315760431871644</v>
+        <v>0.375896</v>
       </c>
       <c r="N8">
-        <v>0.315760431871644</v>
+        <v>1.127688</v>
       </c>
       <c r="O8">
-        <v>0.00625081466533877</v>
+        <v>0.007171518538563155</v>
       </c>
       <c r="P8">
-        <v>0.00625081466533877</v>
+        <v>0.007171518538563155</v>
       </c>
       <c r="Q8">
-        <v>0.8479445840369623</v>
+        <v>1.022565049938667</v>
       </c>
       <c r="R8">
-        <v>0.8479445840369623</v>
+        <v>9.203085449448</v>
       </c>
       <c r="S8">
-        <v>0.001638906064227756</v>
+        <v>0.001787105662419195</v>
       </c>
       <c r="T8">
-        <v>0.001638906064227756</v>
+        <v>0.001787105662419195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.68540481469081</v>
+        <v>2.720340333333333</v>
       </c>
       <c r="H9">
-        <v>2.68540481469081</v>
+        <v>8.161021</v>
       </c>
       <c r="I9">
-        <v>0.2621907946360354</v>
+        <v>0.2491948745317264</v>
       </c>
       <c r="J9">
-        <v>0.2621907946360354</v>
+        <v>0.2491948745317264</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.365160151876591</v>
+        <v>9.578358333333332</v>
       </c>
       <c r="N9">
-        <v>8.365160151876591</v>
+        <v>28.735075</v>
       </c>
       <c r="O9">
-        <v>0.1655972708338361</v>
+        <v>0.1827403706251221</v>
       </c>
       <c r="P9">
-        <v>0.1655972708338361</v>
+        <v>0.1827403706251221</v>
       </c>
       <c r="Q9">
-        <v>22.46384134750911</v>
+        <v>26.05639450128611</v>
       </c>
       <c r="R9">
-        <v>22.46384134750911</v>
+        <v>234.507550511575</v>
       </c>
       <c r="S9">
-        <v>0.04341808002948225</v>
+        <v>0.04553796372980847</v>
       </c>
       <c r="T9">
-        <v>0.04341808002948225</v>
+        <v>0.04553796372980847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.86855126500187</v>
+        <v>4.133464333333333</v>
       </c>
       <c r="H10">
-        <v>3.86855126500187</v>
+        <v>12.400393</v>
       </c>
       <c r="I10">
-        <v>0.377707869112413</v>
+        <v>0.3786431106817516</v>
       </c>
       <c r="J10">
-        <v>0.377707869112413</v>
+        <v>0.3786431106817515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.20023827722216</v>
+        <v>7.759559666666667</v>
       </c>
       <c r="N10">
-        <v>7.20023827722216</v>
+        <v>23.278679</v>
       </c>
       <c r="O10">
-        <v>0.1425363993531946</v>
+        <v>0.1480404846036854</v>
       </c>
       <c r="P10">
-        <v>0.1425363993531946</v>
+        <v>0.1480404846036854</v>
       </c>
       <c r="Q10">
-        <v>27.85449089566267</v>
+        <v>32.07386312453855</v>
       </c>
       <c r="R10">
-        <v>27.85449089566267</v>
+        <v>288.664768120847</v>
       </c>
       <c r="S10">
-        <v>0.05383711967065104</v>
+        <v>0.05605450959717341</v>
       </c>
       <c r="T10">
-        <v>0.05383711967065104</v>
+        <v>0.0560545095971734</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.86855126500187</v>
+        <v>4.133464333333333</v>
       </c>
       <c r="H11">
-        <v>3.86855126500187</v>
+        <v>12.400393</v>
       </c>
       <c r="I11">
-        <v>0.377707869112413</v>
+        <v>0.3786431106817516</v>
       </c>
       <c r="J11">
-        <v>0.377707869112413</v>
+        <v>0.3786431106817515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.6339257763264</v>
+        <v>34.70130533333333</v>
       </c>
       <c r="N11">
-        <v>34.6339257763264</v>
+        <v>104.103916</v>
       </c>
       <c r="O11">
-        <v>0.6856155151476305</v>
+        <v>0.6620476262326294</v>
       </c>
       <c r="P11">
-        <v>0.6856155151476305</v>
+        <v>0.6620476262326295</v>
       </c>
       <c r="Q11">
-        <v>133.9831173739884</v>
+        <v>143.4366079154431</v>
       </c>
       <c r="R11">
-        <v>133.9831173739884</v>
+        <v>1290.929471238988</v>
       </c>
       <c r="S11">
-        <v>0.2589623752568209</v>
+        <v>0.2506797726161924</v>
       </c>
       <c r="T11">
-        <v>0.2589623752568209</v>
+        <v>0.2506797726161924</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.86855126500187</v>
+        <v>4.133464333333333</v>
       </c>
       <c r="H12">
-        <v>3.86855126500187</v>
+        <v>12.400393</v>
       </c>
       <c r="I12">
-        <v>0.377707869112413</v>
+        <v>0.3786431106817516</v>
       </c>
       <c r="J12">
-        <v>0.377707869112413</v>
+        <v>0.3786431106817515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.315760431871644</v>
+        <v>0.375896</v>
       </c>
       <c r="N12">
-        <v>0.315760431871644</v>
+        <v>1.127688</v>
       </c>
       <c r="O12">
-        <v>0.00625081466533877</v>
+        <v>0.007171518538563155</v>
       </c>
       <c r="P12">
-        <v>0.00625081466533877</v>
+        <v>0.007171518538563155</v>
       </c>
       <c r="Q12">
-        <v>1.221535418154585</v>
+        <v>1.553752709042667</v>
       </c>
       <c r="R12">
-        <v>1.221535418154585</v>
+        <v>13.983774381384</v>
       </c>
       <c r="S12">
-        <v>0.002360981887461728</v>
+        <v>0.002715446087753402</v>
       </c>
       <c r="T12">
-        <v>0.002360981887461728</v>
+        <v>0.002715446087753402</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.86855126500187</v>
+        <v>4.133464333333333</v>
       </c>
       <c r="H13">
-        <v>3.86855126500187</v>
+        <v>12.400393</v>
       </c>
       <c r="I13">
-        <v>0.377707869112413</v>
+        <v>0.3786431106817516</v>
       </c>
       <c r="J13">
-        <v>0.377707869112413</v>
+        <v>0.3786431106817515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.365160151876591</v>
+        <v>9.578358333333332</v>
       </c>
       <c r="N13">
-        <v>8.365160151876591</v>
+        <v>28.735075</v>
       </c>
       <c r="O13">
-        <v>0.1655972708338361</v>
+        <v>0.1827403706251221</v>
       </c>
       <c r="P13">
-        <v>0.1655972708338361</v>
+        <v>0.1827403706251221</v>
       </c>
       <c r="Q13">
-        <v>32.36105088748542</v>
+        <v>39.59180254271944</v>
       </c>
       <c r="R13">
-        <v>32.36105088748542</v>
+        <v>356.326222884475</v>
       </c>
       <c r="S13">
-        <v>0.06254739229747937</v>
+        <v>0.0691933823806324</v>
       </c>
       <c r="T13">
-        <v>0.06254739229747937</v>
+        <v>0.06919338238063238</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.64263057333256</v>
+        <v>2.932861</v>
       </c>
       <c r="H14">
-        <v>2.64263057333256</v>
+        <v>8.798583000000001</v>
       </c>
       <c r="I14">
-        <v>0.2580145109449062</v>
+        <v>0.2686626816352981</v>
       </c>
       <c r="J14">
-        <v>0.2580145109449062</v>
+        <v>0.268662681635298</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.20023827722216</v>
+        <v>7.759559666666667</v>
       </c>
       <c r="N14">
-        <v>7.20023827722216</v>
+        <v>23.278679</v>
       </c>
       <c r="O14">
-        <v>0.1425363993531946</v>
+        <v>0.1480404846036854</v>
       </c>
       <c r="P14">
-        <v>0.1425363993531946</v>
+        <v>0.1480404846036854</v>
       </c>
       <c r="Q14">
-        <v>19.02756980666664</v>
+        <v>22.75770992353967</v>
       </c>
       <c r="R14">
-        <v>19.02756980666664</v>
+        <v>204.819389311857</v>
       </c>
       <c r="S14">
-        <v>0.03677645937096233</v>
+        <v>0.03977295358421518</v>
       </c>
       <c r="T14">
-        <v>0.03677645937096233</v>
+        <v>0.03977295358421518</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.64263057333256</v>
+        <v>2.932861</v>
       </c>
       <c r="H15">
-        <v>2.64263057333256</v>
+        <v>8.798583000000001</v>
       </c>
       <c r="I15">
-        <v>0.2580145109449062</v>
+        <v>0.2686626816352981</v>
       </c>
       <c r="J15">
-        <v>0.2580145109449062</v>
+        <v>0.268662681635298</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.6339257763264</v>
+        <v>34.70130533333333</v>
       </c>
       <c r="N15">
-        <v>34.6339257763264</v>
+        <v>104.103916</v>
       </c>
       <c r="O15">
-        <v>0.6856155151476305</v>
+        <v>0.6620476262326294</v>
       </c>
       <c r="P15">
-        <v>0.6856155151476305</v>
+        <v>0.6620476262326295</v>
       </c>
       <c r="Q15">
-        <v>91.52467113105077</v>
+        <v>101.7741050612253</v>
       </c>
       <c r="R15">
-        <v>91.52467113105077</v>
+        <v>915.9669455510281</v>
       </c>
       <c r="S15">
-        <v>0.1768987518370558</v>
+        <v>0.1778674906339417</v>
       </c>
       <c r="T15">
-        <v>0.1768987518370558</v>
+        <v>0.1778674906339417</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.64263057333256</v>
+        <v>2.932861</v>
       </c>
       <c r="H16">
-        <v>2.64263057333256</v>
+        <v>8.798583000000001</v>
       </c>
       <c r="I16">
-        <v>0.2580145109449062</v>
+        <v>0.2686626816352981</v>
       </c>
       <c r="J16">
-        <v>0.2580145109449062</v>
+        <v>0.268662681635298</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315760431871644</v>
+        <v>0.375896</v>
       </c>
       <c r="N16">
-        <v>0.315760431871644</v>
+        <v>1.127688</v>
       </c>
       <c r="O16">
-        <v>0.00625081466533877</v>
+        <v>0.007171518538563155</v>
       </c>
       <c r="P16">
-        <v>0.00625081466533877</v>
+        <v>0.007171518538563155</v>
       </c>
       <c r="Q16">
-        <v>0.8344381711126994</v>
+        <v>1.102450718456</v>
       </c>
       <c r="R16">
-        <v>0.8344381711126994</v>
+        <v>9.922056466104001</v>
       </c>
       <c r="S16">
-        <v>0.00161280088888463</v>
+        <v>0.001926719401967631</v>
       </c>
       <c r="T16">
-        <v>0.00161280088888463</v>
+        <v>0.001926719401967631</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.64263057333256</v>
+        <v>2.932861</v>
       </c>
       <c r="H17">
-        <v>2.64263057333256</v>
+        <v>8.798583000000001</v>
       </c>
       <c r="I17">
-        <v>0.2580145109449062</v>
+        <v>0.2686626816352981</v>
       </c>
       <c r="J17">
-        <v>0.2580145109449062</v>
+        <v>0.268662681635298</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.365160151876591</v>
+        <v>9.578358333333332</v>
       </c>
       <c r="N17">
-        <v>8.365160151876591</v>
+        <v>28.735075</v>
       </c>
       <c r="O17">
-        <v>0.1655972708338361</v>
+        <v>0.1827403706251221</v>
       </c>
       <c r="P17">
-        <v>0.1655972708338361</v>
+        <v>0.1827403706251221</v>
       </c>
       <c r="Q17">
-        <v>22.10602796817232</v>
+        <v>28.09199359985833</v>
       </c>
       <c r="R17">
-        <v>22.10602796817232</v>
+        <v>252.827942398725</v>
       </c>
       <c r="S17">
-        <v>0.0427264988480034</v>
+        <v>0.04909551801517354</v>
       </c>
       <c r="T17">
-        <v>0.0427264988480034</v>
+        <v>0.04909551801517353</v>
       </c>
     </row>
   </sheetData>
